--- a/Ethanol/Ave_SOOT_Mass_FRAC.xlsx
+++ b/Ethanol/Ave_SOOT_Mass_FRAC.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Git_Repos\Pool Fire Experiments\Ethanol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Results\Ethanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14F368C-F663-4A67-978F-72A6172B1751}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F78375D-EBB3-4266-A7E6-CE8073FE550A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="9300" xr2:uid="{59D216BF-43B8-4F93-B67D-9F4EC98CEAC7}"/>
+    <workbookView xWindow="1875" yWindow="4095" windowWidth="18900" windowHeight="11055" xr2:uid="{987B5716-CAC5-45B4-A081-D8C43C2E58AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Mass_Frac_Soot" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,15 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Position (cm)</t>
+    <t>Var1</t>
   </si>
   <si>
-    <t>Ave_Soot_Mass _Fraction</t>
+    <t>Var2</t>
   </si>
   <si>
-    <t>Uncertainty</t>
+    <t>Var3</t>
+  </si>
+  <si>
+    <t>Position_cm</t>
+  </si>
+  <si>
+    <t>ave_Y_Soot</t>
+  </si>
+  <si>
+    <t>u_ave_Y_Soot</t>
   </si>
 </sst>
 </file>
@@ -391,16 +402,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5951C8-9E12-47E0-A756-9147BCE2B631}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EEF813-F633-452A-8BBD-35884E995A00}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -422,7 +432,7 @@
         <v>1.5329983205790762E-4</v>
       </c>
       <c r="C2">
-        <v>4.0092481603284645E-5</v>
+        <v>4.371559165846362E-5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -433,7 +443,7 @@
         <v>1.6624963613273496E-4</v>
       </c>
       <c r="C3">
-        <v>1.6568126655420558E-5</v>
+        <v>7.7727657607547717E-5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -444,7 +454,7 @@
         <v>2.1338869128776614E-4</v>
       </c>
       <c r="C4">
-        <v>2.3487973059168367E-5</v>
+        <v>6.6629576496940451E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -455,7 +465,7 @@
         <v>2.2345287841562286E-4</v>
       </c>
       <c r="C5">
-        <v>2.3613421121760299E-5</v>
+        <v>6.9835329637366311E-5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -466,7 +476,7 @@
         <v>2.6387887471105299E-4</v>
       </c>
       <c r="C6">
-        <v>3.479869071424476E-5</v>
+        <v>6.6012725573775084E-5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -477,7 +487,7 @@
         <v>1.7325510395039498E-4</v>
       </c>
       <c r="C7">
-        <v>2.0208889883630658E-5</v>
+        <v>7.7299035139329197E-5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -488,7 +498,7 @@
         <v>8.3146759422740831E-5</v>
       </c>
       <c r="C8">
-        <v>2.2177025955782447E-5</v>
+        <v>5.7561296149109135E-5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -499,7 +509,7 @@
         <v>7.7674291540075815E-5</v>
       </c>
       <c r="C9">
-        <v>1.7790715783124525E-5</v>
+        <v>4.8093948819845421E-5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -510,7 +520,7 @@
         <v>3.0789870075207818E-5</v>
       </c>
       <c r="C10">
-        <v>1.2011177618721845E-5</v>
+        <v>4.2302641244260622E-5</v>
       </c>
     </row>
   </sheetData>
@@ -519,7 +529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48991BC-59A0-4EE6-8FA7-7E04F598C407}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD55AEF-CF1D-43F0-BEAE-A463B093111B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -531,7 +541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1CA819-8194-46D3-9F29-BC071E59B76F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312AD09E-E732-401F-B0EF-81850940F850}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -540,4 +550,132 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CE25B6-719E-4AD4-9257-BC4EB6E73AA3}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1.5329983205790762E-4</v>
+      </c>
+      <c r="C2">
+        <v>4.371559165846362E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1.6624963613273496E-4</v>
+      </c>
+      <c r="C3">
+        <v>7.7727657607547717E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2.1338869128776614E-4</v>
+      </c>
+      <c r="C4">
+        <v>6.6629576496940451E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>2.2345287841562286E-4</v>
+      </c>
+      <c r="C5">
+        <v>6.9835329637366311E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>2.6387887471105299E-4</v>
+      </c>
+      <c r="C6">
+        <v>6.6012725573775084E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>1.7325510395039498E-4</v>
+      </c>
+      <c r="C7">
+        <v>7.7299035139329197E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>8.3146759422740831E-5</v>
+      </c>
+      <c r="C8">
+        <v>5.7561296149109135E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>7.7674291540075815E-5</v>
+      </c>
+      <c r="C9">
+        <v>4.8093948819845421E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>3.0789870075207818E-5</v>
+      </c>
+      <c r="C10">
+        <v>4.2302641244260622E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Ethanol/Ave_SOOT_Mass_FRAC.xlsx
+++ b/Ethanol/Ave_SOOT_Mass_FRAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Results\Ethanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F78375D-EBB3-4266-A7E6-CE8073FE550A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3936BD69-CD0E-468C-AE3B-D368B93E94E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="4095" windowWidth="18900" windowHeight="11055" xr2:uid="{987B5716-CAC5-45B4-A081-D8C43C2E58AF}"/>
+    <workbookView xWindow="25200" yWindow="-13050" windowWidth="16200" windowHeight="11055" xr2:uid="{987B5716-CAC5-45B4-A081-D8C43C2E58AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Ethanol/Ave_SOOT_Mass_FRAC.xlsx
+++ b/Ethanol/Ave_SOOT_Mass_FRAC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Results\Ethanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3936BD69-CD0E-468C-AE3B-D368B93E94E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37F25ECF-CF49-46F9-A44E-D6995BB36979}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25200" yWindow="-13050" windowWidth="16200" windowHeight="11055" xr2:uid="{987B5716-CAC5-45B4-A081-D8C43C2E58AF}"/>
   </bookViews>
